--- a/documents/features dummies scales.xlsx
+++ b/documents/features dummies scales.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chee Keet\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cheekeet\OneDrive\Work\GA DSI\Lab\working-directory\projects1234\project_2\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EC8C02-1D3F-4F77-88EC-08CF242A5BBB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{25EC8C02-1D3F-4F77-88EC-08CF242A5BBB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{C4793316-83D7-4CC7-945F-38F43B1FC3FE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Chart1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>gender_male</t>
   </si>
@@ -189,11 +190,11 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -212,6 +213,809 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="496021064"/>
+        <c:axId val="496020736"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="496021064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="496020736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="496020736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="496021064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{76AD8E31-13D3-4964-9DB3-AE5300664BBC}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8654143" cy="6272893"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{444DBFB8-6982-46D1-8586-C925DE382CDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -479,8 +1283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,15 +1293,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
       <c r="F1" s="3" t="s">
         <v>11</v>
       </c>
@@ -507,7 +1311,7 @@
       <c r="H1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -515,13 +1319,13 @@
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -536,7 +1340,7 @@
       <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>6</v>
       </c>
     </row>
